--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26471\Desktop\SiteBai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11BDEC0-EAC0-4819-8BE7-482EEA01CEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F584AF-6957-45EB-91A1-4DA7C2A6A4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电影" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="196">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.11.2.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>但是想要克服困难的话只有不停的练习，只能这样。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,9 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.7.</t>
-  </si>
-  <si>
     <t>黑执事: 豪华客船篇/大西洋之书</t>
   </si>
   <si>
@@ -115,9 +108,6 @@
   </si>
   <si>
     <t>Anime, Detective, History, Fantasy</t>
-  </si>
-  <si>
-    <t>2020.8.</t>
   </si>
   <si>
     <t>刀剑神域: 序列之争</t>
@@ -228,9 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.6.</t>
-  </si>
-  <si>
     <t>老九门</t>
   </si>
   <si>
@@ -271,10 +258,6 @@
     <t>The Lost Tomb: Explore With The Note</t>
   </si>
   <si>
-    <t>2020.7.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盗墓笔记重启之极海听雷</t>
   </si>
   <si>
@@ -292,10 +275,6 @@
   </si>
   <si>
     <t>Comedy, Costume, Detective, Action, History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.8.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.10.-2020.12.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>演员请就位第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,22 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.8.-2020.11.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.6.-2020.9.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.-2019.12.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.6.-2019.9.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乘风破浪的姐姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.9.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菊次郎的夏天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.8.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看不见的客人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.9.-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名侦探柯南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.10.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>世界上最著名的学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.2.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绣春刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -704,10 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.11.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天才抢手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,26 +651,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.11.-2021.1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>令人心动的Offer第二季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.11.-2020.1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>令人心动的Offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.11.13.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Proof is a stronger constraint than truth. More things are true than you can prove.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,10 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.11.19.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可能很多人并不知道这就是自己人生的最高峰了，我会觉得特别残酷，但这个职业就是这样。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.11.26.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《令人心动的Offer第二季》第三期，2:21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +796,73 @@
   </si>
   <si>
     <t>白岩松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越自律，越自由。</t>
+  </si>
+  <si>
+    <t>白岩松《一刻talks》演讲，0:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的三体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的三体之罗辑传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的三体之章北海传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Great Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘慈欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三体II·黑暗森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three Body II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读后感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前读的科幻作品不多，认识还停留在初高中阶段所读的科幻短片小说，因此《三体》一书完全超出了我的想象，阅读时叹为观止，爱不释手。全书最为钟爱之处便是小说以游戏的视角介绍了宏伟的三体文明历史，阅读时画面感十足，深受震撼。另外，小说以文革时代为初始背景，将那不堪回首的历史种种搬回荧幕，我也是非常认可的。希望后来者永远不能忘记那个时代，以小说中的蛛丝马迹去探寻历史的伤疤，以免复前车之鉴。这一部相对于整个《三体》系列作品而言，其实严格来讲除了游戏中的描写，离我们的现实生活其实还是相当贴近的，这也更让我相信它的真实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一步承接第一部，开始有了时空的跨越。罗辑和章北海两个人物形象可谓栩栩如生，其行为总是意料之外，又深刻地在情理之中。除了主线人物和故事的描写，许多如你我一般的普通人也穿插其间，仿佛将一个个未来世界里的虚拟选择题呈现在我的面前，不断引人深思。这也正是第二部最打动我的地方，即无数的细节描绘了作者对人性深层的、丰富的思考，让我意识到人性的许多光明与黑暗是跨越时间、跨越空间、跨越社会与文明的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,6 +870,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,11 +925,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1225,886 +1212,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44082</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44081</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44080</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44079</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44078</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44077</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44076</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44075</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44075</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44048</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44047</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44045</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>43865</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>43864</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>43863</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>156</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>43678</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2019</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>43374</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2016</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>42948</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2014</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>42583</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>41852</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G28">
+    <sortCondition descending="1" ref="A1:A28"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6E6637-1FDF-4E45-9AB5-BAE4F047897F}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.92578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="A2" s="5">
+        <v>44166</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44075</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>43800</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>43070</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>43009</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>42948</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>42948</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>42917</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>42887</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>42887</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>42856</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>42826</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>42826</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>42795</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>42795</v>
+      </c>
+      <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2017</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2017</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2017</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2017</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2017</v>
-      </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2017</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2017</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2017</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2020.11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" t="s">
-        <v>153</v>
+      <c r="E36" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G36">
+    <sortCondition descending="1" ref="A1:A36"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2113,173 +2155,170 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF26F374-952D-4AAB-A2F4-8A9009C9A0EE}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.78515625" customWidth="1"/>
+    <col min="1" max="1" width="16.78515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44075</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>43739</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>43647</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>43466</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>43374</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>43344</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44075</v>
+      </c>
+      <c r="B13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2020</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44075</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>43739</v>
+      </c>
       <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2020</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>43862</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2020</v>
+      <c r="A17" s="5">
+        <v>44044</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>159</v>
+      <c r="A18" s="5">
+        <v>44166</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>161</v>
+      <c r="A19" s="5">
+        <v>43800</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2290,14 +2329,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11679BA1-6748-495B-90F3-EEC5E97BA3CF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.92578125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2323,76 +2420,76 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C2">
         <v>1994</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>1997</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2406,12 +2503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1EDBC1-1908-479C-9BD9-498FC12995F4}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.92578125" customWidth="1"/>
     <col min="4" max="4" width="45.640625" customWidth="1"/>
   </cols>
@@ -2431,67 +2529,79 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>44148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>44137</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>200</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition descending="1" ref="A1:A6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26471\Desktop\SiteBai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\SiteBai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F584AF-6957-45EB-91A1-4DA7C2A6A4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87220B38-D190-4159-92FC-9D7B300FF16F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="电影" sheetId="1" r:id="rId1"/>
-    <sheet name="电视剧" sheetId="5" r:id="rId2"/>
-    <sheet name="综艺节目" sheetId="6" r:id="rId3"/>
-    <sheet name="阅读作品" sheetId="2" r:id="rId4"/>
-    <sheet name="教材推荐" sheetId="3" r:id="rId5"/>
-    <sheet name="名言警句" sheetId="4" r:id="rId6"/>
+    <sheet name="刷题记录" sheetId="7" r:id="rId1"/>
+    <sheet name="电影" sheetId="1" r:id="rId2"/>
+    <sheet name="电视剧" sheetId="5" r:id="rId3"/>
+    <sheet name="综艺节目" sheetId="6" r:id="rId4"/>
+    <sheet name="阅读作品" sheetId="2" r:id="rId5"/>
+    <sheet name="教材推荐" sheetId="3" r:id="rId6"/>
+    <sheet name="名言警句" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="211">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -134,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,7 +145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -155,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,7 +324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -334,7 +335,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,7 +362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -372,7 +373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -858,12 +859,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>这一步承接第一部，开始有了时空的跨越。罗辑和章北海两个人物形象可谓栩栩如生，其行为总是意料之外，又深刻地在情理之中。除了主线人物和故事的描写，许多如你我一般的普通人也穿插其间，仿佛将一个个未来世界里的虚拟选择题呈现在我的面前，不断引人深思。这也正是第二部最打动我的地方，即无数的细节描绘了作者对人性深层的、丰富的思考，让我意识到人性的许多光明与黑暗是跨越时间、跨越空间、跨越社会与文明的。</t>
+  </si>
+  <si>
     <t>之前读的科幻作品不多，认识还停留在初高中阶段所读的科幻短片小说，因此《三体》一书完全超出了我的想象，阅读时叹为观止，爱不释手。全书最为钟爱之处便是小说以游戏的视角介绍了宏伟的三体文明历史，阅读时画面感十足，深受震撼。另外，小说以文革时代为初始背景，将那不堪回首的历史种种搬回荧幕，我也是非常认可的。希望后来者永远不能忘记那个时代，以小说中的蛛丝马迹去探寻历史的伤疤，以免复前车之鉴。这一部相对于整个《三体》系列作品而言，其实严格来讲除了游戏中的描写，离我们的现实生活其实还是相当贴近的，这也更让我相信它的真实。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一步承接第一部，开始有了时空的跨越。罗辑和章北海两个人物形象可谓栩栩如生，其行为总是意料之外，又深刻地在情理之中。除了主线人物和故事的描写，许多如你我一般的普通人也穿插其间，仿佛将一个个未来世界里的虚拟选择题呈现在我的面前，不断引人深思。这也正是第二部最打动我的地方，即无数的细节描绘了作者对人性深层的、丰富的思考，让我意识到人性的许多光明与黑暗是跨越时间、跨越空间、跨越社会与文明的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>单调栈</t>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形 | Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>1855. 子数组最小乘积的最大值 | Maximum Subarray Min-Product</t>
+  </si>
+  <si>
+    <t>奇怪的排序问题</t>
+  </si>
+  <si>
+    <t>神奇的数字</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>题目</t>
+  </si>
+  <si>
+    <t>题目内容</t>
+  </si>
+  <si>
+    <t>大致思路</t>
+  </si>
+  <si>
+    <t>掌握程度</t>
+  </si>
+  <si>
+    <t>快排</t>
+  </si>
+  <si>
+    <t>17.14. 最小k个数 | Smallest K LCCI</t>
   </si>
 </sst>
 </file>
@@ -871,19 +915,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -891,7 +935,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -899,9 +943,17 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -922,19 +974,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,6 +1272,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DCE378-DBB6-4357-A2C2-6AF9DDB153D7}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="3" max="3" width="49.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{B876FE48-2040-4BEF-99AD-0E52AEA9047D}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{F6906B3E-1598-420C-A5AD-53F47BD5B7F1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6AF8B437-07AD-4721-8A50-C23ECEFEDF5E}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{B2F71126-F87C-43B3-BCBB-237DC47491BA}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{D64E6055-28B8-4642-AC51-E6ACA2A2E54F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -1218,12 +1393,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>44136</v>
       </c>
@@ -1257,7 +1432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>44105</v>
       </c>
@@ -1268,7 +1443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>44082</v>
       </c>
@@ -1279,7 +1454,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>44081</v>
       </c>
@@ -1290,7 +1465,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>44080</v>
       </c>
@@ -1301,7 +1476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>44079</v>
       </c>
@@ -1312,7 +1487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>44078</v>
       </c>
@@ -1323,7 +1498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>44077</v>
       </c>
@@ -1334,7 +1509,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>44076</v>
       </c>
@@ -1345,7 +1520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>44075</v>
       </c>
@@ -1356,7 +1531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>44075</v>
       </c>
@@ -1367,7 +1542,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>44048</v>
       </c>
@@ -1390,7 +1565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>44047</v>
       </c>
@@ -1401,7 +1576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>44046</v>
       </c>
@@ -1412,7 +1587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="5">
         <v>44045</v>
       </c>
@@ -1432,7 +1607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>44044</v>
       </c>
@@ -1452,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="5">
         <v>44013</v>
       </c>
@@ -1469,7 +1644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>43865</v>
       </c>
@@ -1483,7 +1658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <v>43864</v>
       </c>
@@ -1497,7 +1672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="5">
         <v>43863</v>
       </c>
@@ -1511,7 +1686,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="5">
         <v>43862</v>
       </c>
@@ -1525,7 +1700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="5">
         <v>43678</v>
       </c>
@@ -1536,7 +1711,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="5">
         <v>43678</v>
       </c>
@@ -1550,7 +1725,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="5">
         <v>43374</v>
       </c>
@@ -1561,7 +1736,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>42948</v>
       </c>
@@ -1578,7 +1753,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="5">
         <v>42583</v>
       </c>
@@ -1592,7 +1767,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="5">
         <v>41852</v>
       </c>
@@ -1616,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6E6637-1FDF-4E45-9AB5-BAE4F047897F}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -1624,13 +1799,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="10.92578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>44166</v>
       </c>
@@ -1664,7 +1839,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>44166</v>
       </c>
@@ -1672,7 +1847,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>44166</v>
       </c>
@@ -1680,7 +1855,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>44136</v>
       </c>
@@ -1700,7 +1875,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>44075</v>
       </c>
@@ -1711,7 +1886,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>44044</v>
       </c>
@@ -1728,7 +1903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>44044</v>
       </c>
@@ -1748,7 +1923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>44044</v>
       </c>
@@ -1768,7 +1943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>44044</v>
       </c>
@@ -1788,7 +1963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>44044</v>
       </c>
@@ -1808,7 +1983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>44013</v>
       </c>
@@ -1825,7 +2000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>44013</v>
       </c>
@@ -1842,7 +2017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>44013</v>
       </c>
@@ -1859,7 +2034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>44013</v>
       </c>
@@ -1876,7 +2051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="5">
         <v>44013</v>
       </c>
@@ -1893,7 +2068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>44013</v>
       </c>
@@ -1910,7 +2085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="5">
         <v>44013</v>
       </c>
@@ -1927,7 +2102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>44013</v>
       </c>
@@ -1944,7 +2119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <v>44013</v>
       </c>
@@ -1961,7 +2136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="5">
         <v>43983</v>
       </c>
@@ -1978,7 +2153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="5">
         <v>43862</v>
       </c>
@@ -1989,7 +2164,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="5">
         <v>43800</v>
       </c>
@@ -2000,7 +2175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="5">
         <v>43678</v>
       </c>
@@ -2011,7 +2186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="5">
         <v>43070</v>
       </c>
@@ -2022,7 +2197,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>43009</v>
       </c>
@@ -2033,7 +2208,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="5">
         <v>42948</v>
       </c>
@@ -2044,7 +2219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="5">
         <v>42948</v>
       </c>
@@ -2055,7 +2230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="5">
         <v>42917</v>
       </c>
@@ -2066,7 +2241,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="5">
         <v>42887</v>
       </c>
@@ -2077,7 +2252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="5">
         <v>42887</v>
       </c>
@@ -2088,7 +2263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="5">
         <v>42856</v>
       </c>
@@ -2099,7 +2274,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" s="5">
         <v>42826</v>
       </c>
@@ -2110,7 +2285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="5">
         <v>42826</v>
       </c>
@@ -2121,7 +2296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" s="5">
         <v>42795</v>
       </c>
@@ -2132,7 +2307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" s="5">
         <v>42795</v>
       </c>
@@ -2153,7 +2328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF26F374-952D-4AAB-A2F4-8A9009C9A0EE}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -2161,12 +2336,12 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="16.78515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <v>44136</v>
       </c>
@@ -2185,7 +2360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="5">
         <v>44075</v>
       </c>
@@ -2193,7 +2368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="5">
         <v>44013</v>
       </c>
@@ -2201,7 +2376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="5">
         <v>43739</v>
       </c>
@@ -2209,7 +2384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="5">
         <v>43647</v>
       </c>
@@ -2217,7 +2392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5">
         <v>44044</v>
       </c>
@@ -2225,7 +2400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="5">
         <v>43862</v>
       </c>
@@ -2233,7 +2408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="5">
         <v>43466</v>
       </c>
@@ -2241,7 +2416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="5">
         <v>43374</v>
       </c>
@@ -2249,7 +2424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="5">
         <v>43344</v>
       </c>
@@ -2257,7 +2432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="5">
         <v>43405</v>
       </c>
@@ -2265,7 +2440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="5">
         <v>44075</v>
       </c>
@@ -2273,7 +2448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="5">
         <v>44075</v>
       </c>
@@ -2281,7 +2456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="5">
         <v>43739</v>
       </c>
@@ -2289,7 +2464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="5">
         <v>43862</v>
       </c>
@@ -2297,7 +2472,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="5">
         <v>44044</v>
       </c>
@@ -2305,7 +2480,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="5">
         <v>44166</v>
       </c>
@@ -2313,85 +2488,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="5">
         <v>43800</v>
       </c>
       <c r="B19" t="s">
         <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11679BA1-6748-495B-90F3-EEC5E97BA3CF}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.92578125" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2401,6 +2503,79 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11679BA1-6748-495B-90F3-EEC5E97BA3CF}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="1" max="1" width="10.921875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>44166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>44166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48157B6C-9DE7-489B-A884-E1F0EC79036F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2408,17 +2583,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="18.78515625" customWidth="1"/>
-    <col min="2" max="2" width="14.640625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="18.765625" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
+    <col min="4" max="4" width="17.3046875" customWidth="1"/>
+    <col min="5" max="5" width="37.69140625" customWidth="1"/>
+    <col min="6" max="6" width="39.69140625" customWidth="1"/>
+    <col min="7" max="7" width="38.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -2441,7 +2616,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -2464,7 +2639,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -2478,7 +2653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -2499,7 +2674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1EDBC1-1908-479C-9BD9-498FC12995F4}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2507,14 +2682,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.92578125" customWidth="1"/>
-    <col min="4" max="4" width="45.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.921875" customWidth="1"/>
+    <col min="4" max="4" width="45.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>44180</v>
       </c>
@@ -2542,7 +2717,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>44161</v>
       </c>
@@ -2556,7 +2731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>44154</v>
       </c>
@@ -2570,7 +2745,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>44148</v>
       </c>
@@ -2584,7 +2759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
